--- a/biology/Botanique/Jardins_Kyū-Furukawa/Jardins_Kyū-Furukawa.xlsx
+++ b/biology/Botanique/Jardins_Kyū-Furukawa/Jardins_Kyū-Furukawa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_Ky%C5%AB-Furukawa</t>
+          <t>Jardins_Kyū-Furukawa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jardins Kyū-Furukawa (旧古河庭園, kyū-furukawa teien?) sont un parc métropolitain de Tokyo situés à Kita-ku. Le parc comprend un ancien bâtiment occidental, un jardin de roses et un jardin japonais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_Ky%C5%AB-Furukawa</t>
+          <t>Jardins_Kyū-Furukawa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment et les jardins occidentaux sont dessinés et construits en 1917 par le Britannique Josiah Conder. L'ensemble du site est à l'origine la propriété du politicien Mutsu Munemitsu[1]. Le parc dans son état actuel est ouvert au public en 1956.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment et les jardins occidentaux sont dessinés et construits en 1917 par le Britannique Josiah Conder. L'ensemble du site est à l'origine la propriété du politicien Mutsu Munemitsu. Le parc dans son état actuel est ouvert au public en 1956.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_Ky%C5%AB-Furukawa</t>
+          <t>Jardins_Kyū-Furukawa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'entrée est de 150 yen (1,45 €) et le parc est ouvert jusqu'à 17h. Les stations les plus proches sont la gare de Kami-Nakazato sur la ligne Keihin-Tōhoku et la station Nishigahara sur la ligne de métro Namboku.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardins_Ky%C5%AB-Furukawa</t>
+          <t>Jardins_Kyū-Furukawa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le jardin et le bâtiment ont inspiré une partie de l'île Rokkenjima dans le visual novel Umineko no naku koro ni.</t>
         </is>
